--- a/data/trans_camb/P32C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 1,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 3,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 3,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 0,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 1,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 0,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 2,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 3,11</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,22%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-69,38; 96,78</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-33,55; 217,44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-34,03; 250,07</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,45; 31,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,97; 205,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,78; 196,33</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 0,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; -0,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 0,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 0,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 2,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 0,45</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,56%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-34,32; 131,76</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-65,21; 55,33</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-85,43; 1,58</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,66; 288,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,65; 814,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,36; 113,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,67; 48,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,19; 49,83</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 3,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 1,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 0,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 0,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 0,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 0,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 0,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-72,84; 333,94</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-89,97; 155,29</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-91,82; 147,3</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,78; 226,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,33; 78,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,87; 62,92</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 0,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 0,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 0,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 1,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 0,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 0,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,87%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 64,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,84; 41,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,84; 12,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 37,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,09; 105,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,82; 268,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,54; 37,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,88; 23,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,57; 21,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,79</t>
+          <t>-1,07; 3,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,8</t>
+          <t>-4,73; 1,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,11</t>
+          <t>-1,1; 3,14</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>53,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,76%</t>
+          <t>-31,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>40,54%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 250,07</t>
+          <t>-34,72; 246,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 196,33</t>
+          <t>-39,34; 196,03</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; -0,03</t>
+          <t>-1,95; -0,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,34</t>
+          <t>-0,97; 1,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,45</t>
+          <t>-1,27; 0,28</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-54,63%</t>
+          <t>-56,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,66%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-26,56%</t>
+          <t>-34,27%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,43; 1,58</t>
+          <t>-85,68; -3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,65; 814,11</t>
+          <t>-73,31; 615,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,19; 49,83</t>
+          <t>-70,84; 32,26</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,48</t>
+          <t>-2,97; 0,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,21</t>
+          <t>-2,25; 0,17</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-55,71%</t>
+          <t>-56,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-61,2%</t>
+          <t>-61,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-59,67%</t>
+          <t>-60,17%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,82; 147,3</t>
+          <t>-91,86; 144,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-89,87; 62,92</t>
+          <t>-89,79; 61,14</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,48</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,11</t>
+          <t>-1,51; 0,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,25</t>
+          <t>-1,18; 0,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,23</t>
+          <t>-1,11; 0,14</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-33,89%</t>
+          <t>-36,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>-1,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-25,87%</t>
+          <t>-30,94%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 12,35</t>
+          <t>-64,2; 8,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,82; 268,54</t>
+          <t>-73,46; 209,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,57; 21,78</t>
+          <t>-56,47; 14,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,22</t>
+          <t>-2,4; 1,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,91</t>
+          <t>-1,14; 3,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,77</t>
+          <t>-0,92; 3,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>-5,58; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 0,83</t>
+          <t>-4,87; 0,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,91</t>
+          <t>-4,65; 1,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,32</t>
+          <t>-2,63; 0,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,91</t>
+          <t>-1,55; 2,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,14</t>
+          <t>-1,13; 3,1</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,38; 96,78</t>
+          <t>-72,61; 74,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 217,44</t>
+          <t>-38,33; 235,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 246,83</t>
+          <t>-36,13; 231,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,45; 31,35</t>
+          <t>-77,68; 35,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 205,23</t>
+          <t>-49,5; 152,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,34; 196,03</t>
+          <t>-45,58; 186,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,36</t>
+          <t>-0,94; 1,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,52</t>
+          <t>-1,52; 0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; -0,08</t>
+          <t>-1,97; -0,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,55</t>
+          <t>-1,2; 0,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,63</t>
+          <t>-1,25; 0,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,76</t>
+          <t>-0,93; 1,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,02</t>
+          <t>-0,67; 0,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,39</t>
+          <t>-1,09; 0,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,28</t>
+          <t>-1,24; 0,32</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 131,76</t>
+          <t>-41,34; 141,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,21; 55,33</t>
+          <t>-65,02; 64,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,68; -3,1</t>
+          <t>-83,1; 6,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,66; 288,68</t>
+          <t>-90,07; 308,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,31; 615,46</t>
+          <t>-71,68; 741,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 113,95</t>
+          <t>-38,76; 104,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 48,68</t>
+          <t>-62,28; 39,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 32,26</t>
+          <t>-68,89; 41,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,0</t>
+          <t>-1,94; 3,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,0</t>
+          <t>-2,64; 0,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,44</t>
+          <t>-2,85; 0,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,0</t>
+          <t>-3,17; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,66</t>
+          <t>-1,74; 0,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,41</t>
+          <t>-2,31; 0,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,55</t>
+          <t>-1,71; 1,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,37</t>
+          <t>-2,02; 0,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,17</t>
+          <t>-2,2; 0,2</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-72,84; 333,94</t>
+          <t>-71,46; 389,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,97; 155,29</t>
+          <t>-89,08; 124,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,86; 144,01</t>
+          <t>-92,44; 81,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-84,78; 226,21</t>
+          <t>-79,6; 217,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,33; 78,46</t>
+          <t>-88,86; 67,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-89,79; 61,14</t>
+          <t>-92,77; 48,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,94</t>
+          <t>-0,77; 0,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,59</t>
+          <t>-1,16; 0,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,06</t>
+          <t>-1,44; 0,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,01</t>
+          <t>-1,48; 0,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,36</t>
+          <t>-1,24; 0,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,94</t>
+          <t>-1,06; 1,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,45</t>
+          <t>-0,83; 0,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,27</t>
+          <t>-0,98; 0,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,14</t>
+          <t>-1,16; 0,11</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 64,12</t>
+          <t>-34,76; 57,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 41,78</t>
+          <t>-48,97; 40,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,2; 8,14</t>
+          <t>-62,8; 8,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 37,17</t>
+          <t>-100,0; 69,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-85,09; 105,91</t>
+          <t>-82,0; 117,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,46; 209,57</t>
+          <t>-70,68; 223,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 37,5</t>
+          <t>-42,04; 34,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 23,29</t>
+          <t>-50,34; 23,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,47; 14,69</t>
+          <t>-58,32; 10,5</t>
         </is>
       </c>
     </row>
